--- a/MarsAdvanceTask/MarsAdvanceTask/ExternalFiles/AdvanceMars_TestData.xlsx
+++ b/MarsAdvanceTask/MarsAdvanceTask/ExternalFiles/AdvanceMars_TestData.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Testing\sampletest\MarsAdvanceTask\MarsAdvanceTask\ExternalFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6993ABB1-6546-49D5-91D5-244C0AF5D323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5D2442-4E27-4F63-8A5C-89812FB4C673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Signup" sheetId="1" r:id="rId1"/>
     <sheet name="SentRequest" sheetId="2" r:id="rId2"/>
-    <sheet name="Chats" sheetId="3" r:id="rId3"/>
+    <sheet name="SearchSkills" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="Chats" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Password</t>
   </si>
@@ -52,41 +54,77 @@
     <t>Review</t>
   </si>
   <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>EmailId</t>
+  </si>
+  <si>
+    <t>Confirmpassword</t>
+  </si>
+  <si>
+    <t>Kiranmayi</t>
+  </si>
+  <si>
+    <t>Bodireddy</t>
+  </si>
+  <si>
+    <t>Hi how are you</t>
+  </si>
+  <si>
+    <t>SentRequest</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>ChatSearch</t>
+  </si>
+  <si>
+    <t>Suneha</t>
+  </si>
+  <si>
     <t>ChatInput</t>
   </si>
   <si>
-    <t>Hi, How are you?</t>
-  </si>
-  <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>EmailId</t>
-  </si>
-  <si>
-    <t>Confirmpassword</t>
-  </si>
-  <si>
-    <t>Kiranmayi</t>
-  </si>
-  <si>
-    <t>Bodireddy</t>
-  </si>
-  <si>
-    <t>ChatSearch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suneha </t>
+    <t>FilterButtons</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Onsite</t>
+  </si>
+  <si>
+    <t>ShowAll</t>
+  </si>
+  <si>
+    <t>Searchskills</t>
+  </si>
+  <si>
+    <t>Refineskills</t>
+  </si>
+  <si>
+    <t>RefineSearchUser</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Suneha Burra</t>
+  </si>
+  <si>
+    <t>Automation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +139,45 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,17 +197,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{61C5659E-B246-48D4-AED4-76BC18D20ED1}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="8" xr:uid="{569957A6-EBC3-4B93-B36D-11E27607EE57}"/>
+    <cellStyle name="Hyperlink 2 3" xfId="7" xr:uid="{3A220C57-1363-45AB-9B39-50A0774664C4}"/>
+    <cellStyle name="Hyperlink 3" xfId="5" xr:uid="{8C55FDE8-1363-4C90-A094-C7F748F5E334}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{B8624619-D44A-4C52-919A-8B1E012773D5}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{B4C0F8C9-FCE5-4F97-B3EE-78B2C712E896}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{8428CFB6-906A-4817-956A-CA39A1CC37AA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -448,7 +547,7 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.44140625" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" customWidth="1"/>
@@ -457,29 +556,29 @@
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -501,25 +600,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309B0E8E-F1B5-4987-B746-6037C7587461}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -528,14 +634,86 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE16A19-D79A-4D3A-A3AE-7D5C24783929}">
+  <dimension ref="B1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB11800A-977E-4ED9-9FB3-6F784BE46192}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A7C9DE-BF6F-41E2-A145-31793DD1761A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -543,20 +721,20 @@
     <col min="4" max="4" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
